--- a/formshare/tests/resources/forms/case/case_start.xlsx
+++ b/formshare/tests/resources/forms/case/case_start.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t xml:space="preserve">canton_id=${canton}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coll_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of collection</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -170,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,11 +207,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Bitstream Vera Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -259,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,23 +292,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,15 +389,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
@@ -436,7 +432,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -449,9 +445,8 @@
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -464,12 +459,11 @@
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -482,34 +476,34 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
@@ -517,13 +511,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,9 +533,6 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -551,6 +545,20 @@
         <v>30</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -578,7 +586,7 @@
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -588,7 +596,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -598,102 +606,102 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>23</v>
+      <c r="A2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>23</v>
+      <c r="A3" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
+      <c r="A4" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>34</v>
+      <c r="A5" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
+      <c r="A6" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>34</v>
+      <c r="A8" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
+      <c r="A9" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>34</v>
+      <c r="A10" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +726,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
@@ -727,18 +735,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/formshare/tests/resources/forms/case/case_start.xlsx
+++ b/formshare/tests/resources/forms/case/case_start.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -33,6 +33,9 @@
     <t xml:space="preserve">label</t>
   </si>
   <si>
+    <t xml:space="preserve">meld</t>
+  </si>
+  <si>
     <t xml:space="preserve">required</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
+    <t xml:space="preserve">IND001</t>
+  </si>
+  <si>
     <t xml:space="preserve">integer</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor</t>
   </si>
   <si>
     <t xml:space="preserve">Hombre</t>
@@ -389,29 +398,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,148 +433,158 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -578,15 +597,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -596,7 +615,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -604,110 +623,119 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -726,7 +754,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
@@ -735,24 +763,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/formshare/tests/resources/forms/case/case_start.xlsx
+++ b/formshare/tests/resources/forms/case/case_start.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t xml:space="preserve">canton_id=${canton}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_from_file generated_case.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me_project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -398,15 +407,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
@@ -506,34 +515,34 @@
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
@@ -541,7 +550,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -549,22 +558,22 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,6 +587,20 @@
         <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -605,7 +628,7 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -615,7 +638,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -624,18 +647,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.5</v>
@@ -643,13 +666,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -657,79 +680,79 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +777,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
@@ -763,18 +786,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/formshare/tests/resources/forms/case/case_start.xlsx
+++ b/formshare/tests/resources/forms/case/case_start.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Household Case start</t>
@@ -409,11 +412,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -628,7 +631,7 @@
       <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -771,13 +774,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
@@ -791,13 +794,19 @@
       <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
